--- a/Properties.xlsx
+++ b/Properties.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data_compare" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RMSE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="r2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,16 +448,32 @@
           <t>Predicted density [kg/m3]</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Error [kg/m3]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Error [%]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.4448575566706</v>
+        <v>0.415592138226142</v>
       </c>
       <c r="C2" t="n">
-        <v>1.475163698196411</v>
+        <v>0.568048357963562</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15245621973742</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3668409618818677</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +481,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.73876497306704</v>
+        <v>0.494042374708121</v>
       </c>
       <c r="C3" t="n">
-        <v>2.683493137359619</v>
+        <v>0.6819171905517578</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1878748158436368</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3802807723823949</v>
       </c>
     </row>
     <row r="4">
@@ -474,10 +498,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9833049531731139</v>
+        <v>0.513501221426955</v>
       </c>
       <c r="C4" t="n">
-        <v>1.005409121513367</v>
+        <v>0.7161705493927002</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2026693279657452</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3946812967699527</v>
       </c>
     </row>
     <row r="5">
@@ -485,10 +515,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.415592138226142</v>
+        <v>0.519870870623062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5599087476730347</v>
+        <v>0.1962833404541016</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3235875301689605</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6224382793002863</v>
       </c>
     </row>
     <row r="6">
@@ -496,10 +532,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.72144819651732</v>
+        <v>0.6956893984677111</v>
       </c>
       <c r="C6" t="n">
-        <v>2.988245725631714</v>
+        <v>0.7176596522331238</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02197025376541273</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03158054990316549</v>
       </c>
     </row>
     <row r="7">
@@ -507,10 +549,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.34298236626143</v>
+        <v>0.929780442305243</v>
       </c>
       <c r="C7" t="n">
-        <v>2.432886123657227</v>
+        <v>0.7029852867126465</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2267951555925966</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.243923344989161</v>
       </c>
     </row>
     <row r="8">
@@ -518,10 +566,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.08846720385103</v>
+        <v>0.941113649257159</v>
       </c>
       <c r="C8" t="n">
-        <v>3.152355194091797</v>
+        <v>0.7562463879585266</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1848672612986324</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1964345766789718</v>
       </c>
     </row>
     <row r="9">
@@ -529,10 +583,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.22090612611727</v>
+        <v>0.956562860016915</v>
       </c>
       <c r="C9" t="n">
-        <v>1.184116125106812</v>
+        <v>1.03151273727417</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07494987725725488</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07835332144918268</v>
       </c>
     </row>
     <row r="10">
@@ -540,10 +600,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.72718902069298</v>
+        <v>0.959164174307957</v>
       </c>
       <c r="C10" t="n">
-        <v>1.782524585723877</v>
+        <v>1.125476598739624</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.166312424431667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1733930737682759</v>
       </c>
     </row>
     <row r="11">
@@ -551,10 +617,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.13646578692571</v>
+        <v>0.9833049531731139</v>
       </c>
       <c r="C11" t="n">
-        <v>1.046903133392334</v>
+        <v>1.01041579246521</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02711083929209601</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.02757114077846312</v>
       </c>
     </row>
     <row r="12">
@@ -562,10 +634,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.1986817221463</v>
+        <v>1.13646578692571</v>
       </c>
       <c r="C12" t="n">
-        <v>1.133617401123047</v>
+        <v>1.048815011978149</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.08765077494756057</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07712574892788238</v>
       </c>
     </row>
     <row r="13">
@@ -573,10 +651,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.956562860016915</v>
+        <v>1.1564261001094</v>
       </c>
       <c r="C13" t="n">
-        <v>1.025638222694397</v>
+        <v>1.141487836837769</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0149382632716315</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01291761165734526</v>
       </c>
     </row>
     <row r="14">
@@ -584,10 +668,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.1564261001094</v>
+        <v>1.19703587214665</v>
       </c>
       <c r="C14" t="n">
-        <v>1.138144016265869</v>
+        <v>1.356849908828735</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1598140366820853</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1335081432400936</v>
       </c>
     </row>
     <row r="15">
@@ -595,10 +685,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.47130339805696</v>
+        <v>1.1986817221463</v>
       </c>
       <c r="C15" t="n">
-        <v>2.561422824859619</v>
+        <v>1.135527610778809</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.06315411136749138</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05268630546431522</v>
       </c>
     </row>
     <row r="16">
@@ -606,10 +702,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.02594757687927</v>
+        <v>1.22090612611727</v>
       </c>
       <c r="C16" t="n">
-        <v>2.064659118652344</v>
+        <v>1.186545848846436</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03436027727083446</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.02814325895808807</v>
       </c>
     </row>
     <row r="17">
@@ -617,10 +719,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.426543304915</v>
+        <v>1.4448575566706</v>
       </c>
       <c r="C17" t="n">
-        <v>2.44210147857666</v>
+        <v>1.478109359741211</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.03325180307061104</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02301389705656073</v>
       </c>
     </row>
     <row r="18">
@@ -628,10 +736,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.519870870623062</v>
+        <v>1.60134238576435</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1927708685398102</v>
+        <v>1.610690832138062</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.009348446373711461</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.005837881053307208</v>
       </c>
     </row>
     <row r="19">
@@ -639,10 +753,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.10742967874011</v>
+        <v>1.72718902069298</v>
       </c>
       <c r="C19" t="n">
-        <v>2.180819749832153</v>
+        <v>1.78688907623291</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.05970005553993007</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.03456486512169775</v>
       </c>
     </row>
     <row r="20">
@@ -653,7 +773,13 @@
         <v>1.88414968409158</v>
       </c>
       <c r="C20" t="n">
-        <v>1.917531967163086</v>
+        <v>1.922522783279419</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.03837309918783904</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.02036626893915818</v>
       </c>
     </row>
     <row r="21">
@@ -661,10 +787,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.79659611739957</v>
+        <v>2.02594757687927</v>
       </c>
       <c r="C21" t="n">
-        <v>3.615126371383667</v>
+        <v>2.067660808563232</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.04171323168396235</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.02058949212704536</v>
       </c>
     </row>
     <row r="22">
@@ -672,10 +804,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.36523459549796</v>
+        <v>2.10742967874011</v>
       </c>
       <c r="C22" t="n">
-        <v>3.350818634033203</v>
+        <v>2.181744575500488</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.07431489676037817</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.03526328660456468</v>
       </c>
     </row>
     <row r="23">
@@ -683,10 +821,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.941113649257159</v>
+        <v>2.34298236626143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7543689012527466</v>
+        <v>2.432905197143555</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.08992283088212449</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03837964475405313</v>
       </c>
     </row>
     <row r="24">
@@ -694,10 +838,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.494042374708121</v>
+        <v>2.426543304915</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6736491918563843</v>
+        <v>2.44391393661499</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0173706316999902</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.007158591262231227</v>
       </c>
     </row>
     <row r="25">
@@ -705,10 +855,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.513501221426955</v>
+        <v>2.47130339805696</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7078061699867249</v>
+        <v>2.5611891746521</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.08988577659513952</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.03637180957457972</v>
       </c>
     </row>
     <row r="26">
@@ -716,10 +872,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.60134238576435</v>
+        <v>2.72144819651732</v>
       </c>
       <c r="C26" t="n">
-        <v>1.611457347869873</v>
+        <v>2.984005928039551</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2625577315222309</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.09647721086818048</v>
       </c>
     </row>
     <row r="27">
@@ -727,10 +889,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.19703587214665</v>
+        <v>2.73876497306704</v>
       </c>
       <c r="C27" t="n">
-        <v>1.349575042724609</v>
+        <v>2.685354232788086</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.05341074027895409</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0195017611237891</v>
       </c>
     </row>
     <row r="28">
@@ -738,10 +906,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.929780442305243</v>
+        <v>3.02403183192847</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7016506791114807</v>
+        <v>3.185147047042847</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1611152151143767</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.05327828014681681</v>
       </c>
     </row>
     <row r="29">
@@ -749,10 +923,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6956893984677111</v>
+        <v>3.08846720385103</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7116143703460693</v>
+        <v>3.150863409042358</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.06239620519132849</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02020296835709515</v>
       </c>
     </row>
     <row r="30">
@@ -760,10 +940,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.02403183192847</v>
+        <v>3.36523459549796</v>
       </c>
       <c r="C30" t="n">
-        <v>3.18797779083252</v>
+        <v>3.349450826644897</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01578376885306243</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.004690243252038979</v>
       </c>
     </row>
     <row r="31">
@@ -771,10 +957,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.959164174307957</v>
+        <v>3.79659611739957</v>
       </c>
       <c r="C31" t="n">
-        <v>1.118150115013123</v>
+        <v>3.614023208618164</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1825729087814061</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0480885780672549</v>
       </c>
     </row>
   </sheetData>
@@ -913,8 +1105,8 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[-0.17245601  0.22901185  0.283951    0.46177155]
- [-0.450533   -0.7235897   0.00306387 -0.33492503]]</t>
+          <t>[[-0.8768016  -0.401041    1.0109107   0.25347024]
+ [-0.15324219  0.4334911  -0.19539781  0.41129154]]</t>
         </is>
       </c>
     </row>
@@ -924,7 +1116,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-0.16414922  0.13615187  0.5273767   0.5594805 ]</t>
+          <t>[-0.4139043  -0.03969181  0.46160144 -0.64109814]</t>
         </is>
       </c>
     </row>
@@ -934,10 +1126,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[-0.44148576]
- [ 0.18759507]
- [ 1.1275668 ]
- [ 1.1606616 ]]</t>
+          <t>[[-0.6549609 ]
+ [ 0.06687934]
+ [ 0.6222249 ]
+ [-0.8064523 ]]</t>
         </is>
       </c>
     </row>
@@ -947,8 +1139,1052 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[0.5083399]</t>
+          <t>[0.779768]</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.697290980036628</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.618828277462697</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.545290279710814</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.470271357448165</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.398826630225897</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.334586324641774</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.276567882587193</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.223031032268363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.17074214856262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.123780065946877</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.083856303579389</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.046835656636666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.009055738476652</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9782787653073981</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9470447715419594</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9136173762082849</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8779969322242235</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8434507051093519</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8083428993511145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7781002638228689</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7508641668573035</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.727823250585934</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7085010993722854</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6859343865395621</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6695167272855534</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.654556268544887</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6404743947964369</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.626859354867937</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6131022732767977</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5977967788934313</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5844656450684454</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5726191499565727</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5609373799273434</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5471214011816725</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5308537127127573</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5123030551618254</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4906484215606721</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4708534886960787</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4529967784335465</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4354513260250771</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4170745125116331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3992587769331283</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3828558216105216</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3672826116220679</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3528951183587872</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3392000899240818</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3272594548215407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3163520860818159</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3067600600785574</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.297408540535512</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.2887910522037395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.2813790078456018</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.2740959957797566</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.2673520016804149</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.261273090058561</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.2551381377912428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.2506621651431279</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.2458311905538525</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.2416353006328239</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.2378515527768759</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.2342012794727824</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.2302166562208476</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.2242786875638606</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.2188142358606996</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.2130735818583206</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.2084078635575006</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.2045417583467573</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.2000442027627322</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1932724073171251</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1868061200434331</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1818841921394063</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1766248961982908</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1725224254637031</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1693654156802516</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.166805413851725</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1640122029998773</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1624982833771634</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1603036004936903</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1585582115494088</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.1573865029609365</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1557915638041388</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1542995247432284</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1530290071631939</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1525997187798397</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1516662166585726</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1510100920877782</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1498422222536904</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1495427468841806</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1488555867848372</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1487584346395412</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1480970808368194</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.1479584026948388</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1475545005306357</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.1475055260855593</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1474343206370893</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1473218817982576</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1468779236421369</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.147019084301441</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1469013953840053</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.1466504808242601</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1470661372976385</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.1470357879704555</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.1465805564465626</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.1467405431708417</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.1467856932071734</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.1463935188816046</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1464517175510556</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.1465632099366227</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.1465688843139798</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1466445619199962</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1466160055659567</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1467178074234655</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1464885138880614</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.1462846666192539</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1462529133950741</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.1462618791104407</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.1463263549432862</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.1463839250110943</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1474063595449313</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.1466007723889912</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1464720339344886</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.1464203758305475</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1463674905477074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9796100892845316</v>
       </c>
     </row>
   </sheetData>
